--- a/Ekka_Testcase_v1.0-1.xlsx
+++ b/Ekka_Testcase_v1.0-1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EkkaWebAutoTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="141">
   <si>
     <t>Creator:</t>
   </si>
@@ -418,6 +418,39 @@
   <si>
     <t>User đã đăng nhập
 Giỏ hàng có sản phẩm</t>
+  </si>
+  <si>
+    <t>BS-1</t>
+  </si>
+  <si>
+    <t>Xem danh sách sản phẩm đã mua</t>
+  </si>
+  <si>
+    <t>Xem danh sách sản phẩm đã mua thành công khi người dùng đã mua hàng</t>
+  </si>
+  <si>
+    <t>2. Hiển thị danh sách các sản phẩm đã mua</t>
+  </si>
+  <si>
+    <t>User đã mua hàng</t>
+  </si>
+  <si>
+    <t>2. Nhấn icon người dùng bên góc trái màn hình</t>
+  </si>
+  <si>
+    <t>BS-2</t>
+  </si>
+  <si>
+    <t>Xem danh sách sản phẩm đã mua thành công khi người dùng chưa mua hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User đã đăng nhập </t>
+  </si>
+  <si>
+    <t>2. Hiển thị thông báo "You have not placed any orders yet"</t>
+  </si>
+  <si>
+    <t>User chưa mua hàng</t>
   </si>
 </sst>
 </file>
@@ -496,7 +529,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1027,11 +1060,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1043,22 +1102,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1086,10 +1132,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1111,74 +1153,16 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1205,35 +1189,95 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1471,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1496,75 +1540,75 @@
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="59"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="56"/>
+      <c r="D3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="11">
         <f>COUNTIF($H$17:$H$24,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="12">
         <f>COUNTIF($H$17:$H$24,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19">
+      <c r="G3" s="12"/>
+      <c r="H3" s="12">
         <f>COUNTIF($H$17:$H$24,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="13">
         <f>COUNTA($A$8:$A$24)</f>
         <v>8</v>
       </c>
@@ -1572,24 +1616,24 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16">
         <f>COUNTIF($K$8:$K$24,"Pass")</f>
         <v>0</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="17">
         <f>COUNTIF($K$8:$K$24,"Fail")</f>
         <v>0</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26">
+      <c r="G4" s="17"/>
+      <c r="H4" s="17">
         <f>COUNTIF($K$8:$K$24,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="18">
         <f>COUNTA($A$8:$A$24)</f>
         <v>8</v>
       </c>
@@ -1597,15 +1641,15 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="30"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -1613,1253 +1657,1311 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="51" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="52"/>
     </row>
     <row r="8" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="41" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="44"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41" t="s">
+      <c r="D10" s="41"/>
+      <c r="E10" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="42" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="44"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="53" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="44"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="23"/>
     </row>
     <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="44"/>
-    </row>
-    <row r="13" spans="1:14" ht="54" x14ac:dyDescent="0.3">
-      <c r="A13" s="38" t="s">
+      <c r="F12" s="24"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+      <c r="A13" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="39" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="41" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="23"/>
     </row>
     <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="44"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:14" ht="36" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="41" t="s">
+      <c r="D15" s="41"/>
+      <c r="E15" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42" t="s">
+      <c r="F15" s="22"/>
+      <c r="G15" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="44"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="39" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41" t="s">
+      <c r="D17" s="41"/>
+      <c r="E17" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42" t="s">
+      <c r="F17" s="22"/>
+      <c r="G17" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="23"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="23"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="39" t="s">
+      <c r="B19" s="39"/>
+      <c r="C19" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42" t="s">
+      <c r="F19" s="22"/>
+      <c r="G19" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="44"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="23"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="23"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="39" t="s">
+      <c r="B21" s="39"/>
+      <c r="C21" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41" t="s">
+      <c r="D21" s="41"/>
+      <c r="E21" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42" t="s">
+      <c r="F21" s="22"/>
+      <c r="G21" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="44"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="23"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="44"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="23"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="41" t="s">
+      <c r="E23" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42" t="s">
+      <c r="F23" s="22"/>
+      <c r="G23" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="55"/>
-      <c r="I23" s="44"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="23"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="45"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="49" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="44"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="23"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58" t="s">
+      <c r="F25" s="28"/>
+      <c r="G25" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="55"/>
-      <c r="I25" s="44"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="23"/>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
+    <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41" t="s">
+      <c r="D26" s="41"/>
+      <c r="E26" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42" t="s">
+      <c r="F26" s="22"/>
+      <c r="G26" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="H26" s="55"/>
-      <c r="I26" s="44"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="23"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49" t="s">
+    <row r="27" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A27" s="37"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="44"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="23"/>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="38" t="s">
+    <row r="28" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A28" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="39" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42" t="s">
+      <c r="F28" s="22"/>
+      <c r="G28" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="H28" s="55"/>
-      <c r="I28" s="44"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="23"/>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="49" t="s">
+    <row r="29" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A29" s="37"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="49"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="44"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="23"/>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
+    <row r="30" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A30" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="39" t="s">
+      <c r="C30" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41" t="s">
+      <c r="D30" s="41"/>
+      <c r="E30" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42" t="s">
+      <c r="F30" s="22"/>
+      <c r="G30" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="H30" s="55"/>
-      <c r="I30" s="44"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="23"/>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49" t="s">
+    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31" s="37"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="44"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="23"/>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="38" t="s">
+    <row r="32" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A32" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="39" t="s">
+      <c r="B32" s="39"/>
+      <c r="C32" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="41" t="s">
+      <c r="D32" s="41"/>
+      <c r="E32" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42" t="s">
+      <c r="F32" s="22"/>
+      <c r="G32" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="55"/>
-      <c r="I32" s="44"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="23"/>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="51"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="53" t="s">
+    <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="36"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="44"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="23"/>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49" t="s">
+    <row r="34" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="37"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="44"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="23"/>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="s">
+    <row r="35" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="39" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41" t="s">
+      <c r="D35" s="41"/>
+      <c r="E35" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="59" t="s">
+      <c r="F35" s="22"/>
+      <c r="G35" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="H35" s="55"/>
-      <c r="I35" s="44"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="23"/>
       <c r="L35" s="3"/>
     </row>
-    <row r="36" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="51"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="46" t="s">
+    <row r="36" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A36" s="36"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="F36" s="53"/>
-      <c r="G36" s="54" t="s">
+      <c r="F36" s="25"/>
+      <c r="G36" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="H36" s="55"/>
-      <c r="I36" s="44"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="23"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="44"/>
+    <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A37" s="37"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="23"/>
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="38" t="s">
+    <row r="38" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A38" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="60" t="s">
+      <c r="D38" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="E38" s="41" t="s">
+      <c r="E38" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42" t="s">
+      <c r="F38" s="22"/>
+      <c r="G38" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="H38" s="55"/>
-      <c r="I38" s="44"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="23"/>
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="51"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="53" t="s">
+    <row r="39" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A39" s="36"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="53"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="44"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="23"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="51"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="53" t="s">
+    <row r="40" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A40" s="36"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="53"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="44"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="23"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="51"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="53" t="s">
+    <row r="41" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A41" s="36"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F41" s="53"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="44"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="23"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="51"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="53" t="s">
+    <row r="42" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A42" s="36"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="53"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="44"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="23"/>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="51"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="53" t="s">
+    <row r="43" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A43" s="36"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="44"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="23"/>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="45"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="62"/>
-      <c r="E44" s="49" t="s">
+    <row r="44" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A44" s="37"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F44" s="49"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="44"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="23"/>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="38" t="s">
+    <row r="45" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A45" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="46"/>
-      <c r="C45" s="39" t="s">
+      <c r="B45" s="39"/>
+      <c r="C45" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="60" t="s">
+      <c r="D45" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="E45" s="41" t="s">
+      <c r="E45" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F45" s="41"/>
-      <c r="G45" s="42" t="s">
+      <c r="F45" s="22"/>
+      <c r="G45" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="H45" s="55"/>
-      <c r="I45" s="44"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="23"/>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="51"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="53" t="s">
+    <row r="46" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A46" s="36"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F46" s="53"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="44"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="23"/>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="51"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="53" t="s">
+    <row r="47" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A47" s="36"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="F47" s="53"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="44"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="23"/>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="51"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="53" t="s">
+    <row r="48" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A48" s="36"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F48" s="53"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="44"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="23"/>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="51"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="53" t="s">
+    <row r="49" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A49" s="36"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F49" s="53"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="44"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="23"/>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="51"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="53" t="s">
+    <row r="50" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A50" s="36"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F50" s="53"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="44"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="23"/>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="51"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="53" t="s">
+    <row r="51" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A51" s="36"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="F51" s="53"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="44"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="23"/>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="45"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="49" t="s">
+    <row r="52" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A52" s="37"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="44"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="23"/>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="38" t="s">
+    <row r="53" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A53" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="46"/>
-      <c r="C53" s="39" t="s">
+      <c r="B53" s="39"/>
+      <c r="C53" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D53" s="60" t="s">
+      <c r="D53" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="E53" s="41" t="s">
+      <c r="E53" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F53" s="41"/>
-      <c r="G53" s="42" t="s">
+      <c r="F53" s="22"/>
+      <c r="G53" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="H53" s="55"/>
-      <c r="I53" s="44"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="23"/>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="51"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="53" t="s">
+    <row r="54" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A54" s="36"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F54" s="53"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="44"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="23"/>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="51"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="53" t="s">
+    <row r="55" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A55" s="36"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="F55" s="53"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="55"/>
-      <c r="I55" s="44"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="23"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="1:12" ht="54" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="51"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="53" t="s">
+    <row r="56" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A56" s="36"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F56" s="53"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="44"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="23"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="45"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="62"/>
-      <c r="E57" s="49" t="s">
+    <row r="57" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A57" s="37"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F57" s="49"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="44"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="23"/>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="38" t="s">
+    <row r="58" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A58" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="46"/>
-      <c r="C58" s="39" t="s">
+      <c r="B58" s="39"/>
+      <c r="C58" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="D58" s="60" t="s">
+      <c r="D58" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="E58" s="41" t="s">
+      <c r="E58" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F58" s="41"/>
-      <c r="G58" s="42" t="s">
+      <c r="F58" s="22"/>
+      <c r="G58" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="H58" s="55"/>
-      <c r="I58" s="44"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="23"/>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="51"/>
-      <c r="B59" s="46"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="53" t="s">
+    <row r="59" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A59" s="36"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F59" s="53"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="55"/>
-      <c r="I59" s="44"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="23"/>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="51"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="53" t="s">
+    <row r="60" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A60" s="36"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="F60" s="53"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="44"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="23"/>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="1:12" ht="54" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="51"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="53" t="s">
+    <row r="61" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A61" s="36"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="F61" s="53"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="44"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="23"/>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="45"/>
-      <c r="B62" s="46"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="49" t="s">
+    <row r="62" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A62" s="37"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F62" s="49"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="44"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="23"/>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="38" t="s">
+    <row r="63" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A63" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="B63" s="46"/>
-      <c r="C63" s="39" t="s">
+      <c r="B63" s="39"/>
+      <c r="C63" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="60" t="s">
+      <c r="D63" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="E63" s="41" t="s">
+      <c r="E63" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F63" s="41"/>
-      <c r="G63" s="42" t="s">
+      <c r="F63" s="22"/>
+      <c r="G63" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="H63" s="55"/>
-      <c r="I63" s="44"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="23"/>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="51"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="46"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="53" t="s">
+    <row r="64" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A64" s="36"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F64" s="53"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="44"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="23"/>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="51"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="53" t="s">
+    <row r="65" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A65" s="36"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="F65" s="53"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="44"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="23"/>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="51"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="53" t="s">
+    <row r="66" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A66" s="36"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F66" s="53"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="44"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="23"/>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="51"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="53" t="s">
+    <row r="67" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A67" s="36"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="F67" s="53"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="44"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="23"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="1:12" ht="18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="45"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="49" t="s">
+    <row r="68" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A68" s="37"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="F68" s="49"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="44"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="23"/>
       <c r="L68" s="3"/>
     </row>
     <row r="69" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="C69" s="39" t="s">
+      <c r="C69" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="D69" s="40"/>
-      <c r="E69" s="41" t="s">
+      <c r="D69" s="41"/>
+      <c r="E69" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F69" s="41"/>
-      <c r="G69" s="42" t="s">
+      <c r="F69" s="22"/>
+      <c r="G69" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="H69" s="55"/>
-      <c r="I69" s="44"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="23"/>
       <c r="L69" s="3"/>
     </row>
     <row r="70" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A70" s="51"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="53" t="s">
+      <c r="A70" s="36"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F70" s="53"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="44"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="23"/>
       <c r="L70" s="3"/>
     </row>
     <row r="71" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A71" s="45"/>
-      <c r="B71" s="46"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="49" t="s">
+      <c r="A71" s="37"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="F71" s="49"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="55"/>
-      <c r="I71" s="44"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="23"/>
       <c r="L71" s="3"/>
     </row>
     <row r="72" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A72" s="38" t="s">
+      <c r="A72" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B72" s="46"/>
-      <c r="C72" s="39" t="s">
+      <c r="B72" s="39"/>
+      <c r="C72" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D72" s="40"/>
-      <c r="E72" s="41" t="s">
+      <c r="D72" s="41"/>
+      <c r="E72" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F72" s="41"/>
-      <c r="G72" s="42" t="s">
+      <c r="F72" s="22"/>
+      <c r="G72" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="H72" s="55"/>
-      <c r="I72" s="44"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="23"/>
       <c r="L72" s="3"/>
     </row>
     <row r="73" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A73" s="51"/>
-      <c r="B73" s="46"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="52"/>
-      <c r="E73" s="53" t="s">
+      <c r="A73" s="36"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="F73" s="53"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="44"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="23"/>
       <c r="L73" s="3"/>
     </row>
     <row r="74" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A74" s="45"/>
-      <c r="B74" s="46"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="49" t="s">
+      <c r="A74" s="37"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="F74" s="49"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="44"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="23"/>
       <c r="L74" s="3"/>
     </row>
     <row r="75" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A75" s="38" t="s">
+      <c r="A75" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="B75" s="46"/>
-      <c r="C75" s="39" t="s">
+      <c r="B75" s="39"/>
+      <c r="C75" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="D75" s="40"/>
-      <c r="E75" s="41" t="s">
+      <c r="D75" s="41"/>
+      <c r="E75" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F75" s="41"/>
-      <c r="G75" s="42" t="s">
+      <c r="F75" s="22"/>
+      <c r="G75" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="H75" s="55"/>
-      <c r="I75" s="44"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="23"/>
       <c r="L75" s="3"/>
     </row>
     <row r="76" spans="1:12" ht="36" x14ac:dyDescent="0.3">
-      <c r="A76" s="51"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="52"/>
-      <c r="E76" s="53" t="s">
+      <c r="A76" s="36"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="F76" s="53"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="44"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="23"/>
       <c r="L76" s="3"/>
     </row>
     <row r="77" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A77" s="45"/>
-      <c r="B77" s="47"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="49" t="s">
+      <c r="A77" s="37"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="F77" s="49"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="44"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="23"/>
       <c r="L77" s="3"/>
     </row>
-    <row r="78" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A78" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B78" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F78" s="22"/>
+      <c r="G78" s="38" t="s">
+        <v>133</v>
+      </c>
       <c r="I78" s="3"/>
       <c r="L78" s="3"/>
     </row>
-    <row r="79" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A79" s="37"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E79" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F79" s="24"/>
+      <c r="G79" s="40"/>
       <c r="I79" s="3"/>
       <c r="L79" s="3"/>
     </row>
-    <row r="80" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A80" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B80" s="39"/>
+      <c r="C80" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F80" s="22"/>
+      <c r="G80" s="38" t="s">
+        <v>139</v>
+      </c>
       <c r="I80" s="3"/>
       <c r="L80" s="3"/>
     </row>
-    <row r="81" spans="9:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="36" x14ac:dyDescent="0.3">
+      <c r="A81" s="63"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="F81" s="65"/>
+      <c r="G81" s="64"/>
       <c r="I81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="9:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="9:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="9:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="9:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="9:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I86" s="3"/>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="9:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I87" s="3"/>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="9:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I88" s="3"/>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="9:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="9:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="9:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I91" s="3"/>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="9:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I92" s="3"/>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="9:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I93" s="3"/>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="9:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I94" s="3"/>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="9:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="9:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I96" s="3"/>
       <c r="L96" s="3"/>
     </row>
@@ -6480,72 +6582,42 @@
       <c r="L1000" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="114">
-    <mergeCell ref="D63:D68"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="D38:D44"/>
-    <mergeCell ref="D45:D52"/>
-    <mergeCell ref="D53:D57"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B77"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="G69:G71"/>
-    <mergeCell ref="A72:A74"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B38:B68"/>
-    <mergeCell ref="C38:C44"/>
-    <mergeCell ref="G38:G44"/>
-    <mergeCell ref="A45:A52"/>
-    <mergeCell ref="C45:C52"/>
-    <mergeCell ref="G45:G52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="C53:C57"/>
-    <mergeCell ref="G53:G57"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="G58:G62"/>
-    <mergeCell ref="A63:A68"/>
-    <mergeCell ref="C63:C68"/>
-    <mergeCell ref="G63:G68"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B37"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G21:G22"/>
+  <mergeCells count="121">
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B14"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G6:G7"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
@@ -6567,47 +6639,84 @@
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B14"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="A38:A44"/>
+    <mergeCell ref="B38:B68"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="G38:G44"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="C45:C52"/>
+    <mergeCell ref="G45:G52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="C53:C57"/>
+    <mergeCell ref="G53:G57"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="G58:G62"/>
+    <mergeCell ref="A63:A68"/>
+    <mergeCell ref="C63:C68"/>
+    <mergeCell ref="G63:G68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B77"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="G69:G71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="D63:D68"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="D38:D44"/>
+    <mergeCell ref="D45:D52"/>
+    <mergeCell ref="D53:D57"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="G21:G22"/>
   </mergeCells>
   <conditionalFormatting sqref="I78:I1000 H8 H13 H15 H17 H19 H21 H23:H77">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>INDIRECT("I"&amp;ROW())="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:L1000">
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>INDIRECT("L"&amp;ROW())="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="1" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
       <formula>INDIRECT("I"&amp;ROW())="Fail"</formula>
     </cfRule>
   </conditionalFormatting>
